--- a/LINE/シリーズごとのリスト.xlsx
+++ b/LINE/シリーズごとのリスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chie\１８.副業\LINE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\副業\LINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE26F8-4B6A-4E29-9F16-16321DD57C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD6B3DD-86B6-4F83-BCFD-87B16F6D2962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="232">
   <si>
     <t>超絶ごめんなさい</t>
   </si>
@@ -148,9 +148,6 @@
     <t>もう着いてるよ</t>
   </si>
   <si>
-    <t>何処にいるの？</t>
-  </si>
-  <si>
     <t>待たせてごめん</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>ちょっと待っててね</t>
   </si>
   <si>
-    <t>急いでいきます</t>
-  </si>
-  <si>
     <t>ごめん間に合わない</t>
   </si>
   <si>
@@ -259,9 +253,6 @@
     <t>今日も一日お疲れ様でした</t>
   </si>
   <si>
-    <t>やったぜ</t>
-  </si>
-  <si>
     <t>うん　うん</t>
   </si>
   <si>
@@ -274,9 +265,6 @@
     <t>たまにはリラックスしてね</t>
   </si>
   <si>
-    <t>がんばりましょう</t>
-  </si>
-  <si>
     <t>歌をうたいましょう</t>
   </si>
   <si>
@@ -346,12 +334,6 @@
     <t>ランランラン</t>
   </si>
   <si>
-    <t>ルンルンルン</t>
-  </si>
-  <si>
-    <t>これあげる</t>
-  </si>
-  <si>
     <t>みんなありがと</t>
   </si>
   <si>
@@ -385,21 +367,12 @@
     <t>手伝って</t>
   </si>
   <si>
-    <t>うーん悩む</t>
-  </si>
-  <si>
     <t>ズッコケ</t>
   </si>
   <si>
-    <t>暑い</t>
-  </si>
-  <si>
     <t>寒い</t>
   </si>
   <si>
-    <t>大丈夫？</t>
-  </si>
-  <si>
     <t>風邪ひいた</t>
   </si>
   <si>
@@ -449,9 +422,6 @@
   </si>
   <si>
     <t>オッケー</t>
-  </si>
-  <si>
-    <t>はしゃいでしまった</t>
   </si>
   <si>
     <t>感嘆、、、</t>
@@ -1057,6 +1027,46 @@
   </si>
   <si>
     <t>大変だ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何処にいるの？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>急いでいきます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やったぜ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がんばりましょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルンルンルン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これあげる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うーん悩む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暑い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大丈夫？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はしゃいでしまった</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1268,6 +1278,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,15 +1307,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1660,53 +1670,53 @@
   <dimension ref="A1:AA230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V177" sqref="V177"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.4375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5625" bestFit="1" customWidth="1"/>
-    <col min="10" max="21" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="3.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="3.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="22.9">
-      <c r="A1" s="15"/>
-      <c r="B1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-    </row>
-    <row r="2" spans="1:27" ht="22.9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="13"/>
+    <row r="1" spans="1:27" ht="22.5">
+      <c r="A1" s="18"/>
+      <c r="B1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+    </row>
+    <row r="2" spans="1:27" ht="22.5">
+      <c r="A2" s="19"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="e" vm="1">
         <v>#VALUE!</v>
@@ -1737,68 +1747,68 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:27" s="21" customFormat="1" ht="90.4" thickBot="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="1:27" s="14" customFormat="1" ht="92.5" thickBot="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="O3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="P3" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="Q3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="R3" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="S3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="T3" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
     </row>
     <row r="4" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A4" s="1">
@@ -1809,7 +1819,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1822,7 +1832,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1842,7 +1852,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1855,9 +1865,11 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P5" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -2498,7 +2510,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2513,7 +2525,9 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2527,7 +2541,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2556,7 +2570,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2585,7 +2599,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2614,7 +2628,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2629,7 +2643,9 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="P31" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2643,7 +2659,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2672,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2701,7 +2717,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2730,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2759,7 +2775,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2788,7 +2804,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2817,7 +2833,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2846,7 +2862,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2875,7 +2891,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2904,7 +2920,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2933,7 +2949,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2962,7 +2978,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2991,7 +3007,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3020,7 +3036,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3049,7 +3065,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3078,7 +3094,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3107,7 +3123,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3136,7 +3152,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3165,7 +3181,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3194,7 +3210,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3223,7 +3239,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3252,7 +3268,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3281,7 +3297,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3310,7 +3326,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3339,7 +3355,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3368,7 +3384,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3397,7 +3413,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3426,7 +3442,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3455,7 +3471,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3484,7 +3500,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3513,7 +3529,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3542,7 +3558,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3571,7 +3587,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3586,7 +3602,9 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="P64" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -3600,7 +3618,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3629,7 +3647,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3658,7 +3676,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3687,7 +3705,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3716,7 +3734,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3731,7 +3749,9 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
+      <c r="P69" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -3745,7 +3765,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3774,7 +3794,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3803,7 +3823,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3832,7 +3852,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3861,7 +3881,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3890,7 +3910,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3919,7 +3939,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3937,7 +3957,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
@@ -3950,7 +3970,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3968,7 +3988,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -3981,7 +4001,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3999,7 +4019,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -4012,7 +4032,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4030,7 +4050,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -4043,7 +4063,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4061,7 +4081,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -4074,7 +4094,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -4092,7 +4112,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -4105,7 +4125,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4120,10 +4140,12 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
+      <c r="P82" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
@@ -4136,7 +4158,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4154,10 +4176,10 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -4169,7 +4191,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4187,7 +4209,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
@@ -4200,7 +4222,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4229,7 +4251,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4258,7 +4280,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4287,7 +4309,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4302,7 +4324,9 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
+      <c r="P88" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -4316,7 +4340,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4345,7 +4369,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4374,7 +4398,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4389,7 +4413,9 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
+      <c r="P91" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -4403,7 +4429,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4432,7 +4458,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4461,7 +4487,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4490,7 +4516,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4519,7 +4545,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4548,7 +4574,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4577,7 +4603,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4635,7 +4661,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4664,7 +4690,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4693,7 +4719,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4722,7 +4748,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4751,7 +4777,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4780,7 +4806,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4809,7 +4835,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4838,7 +4864,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4867,7 +4893,7 @@
         <v>105</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4896,7 +4922,7 @@
         <v>106</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4925,7 +4951,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4954,7 +4980,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4983,7 +5009,7 @@
         <v>109</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4998,7 +5024,9 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
+      <c r="P112" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -5012,7 +5040,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -5027,7 +5055,9 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
+      <c r="P113" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -5041,7 +5071,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -5070,7 +5100,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -5099,7 +5129,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -5128,7 +5158,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -5157,7 +5187,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -5186,7 +5216,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -5215,7 +5245,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -5244,7 +5274,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -5273,7 +5303,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -5302,7 +5332,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -5331,7 +5361,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -5360,7 +5390,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -5389,7 +5419,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -5404,7 +5434,9 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
+      <c r="P126" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
@@ -5418,7 +5450,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -5447,7 +5479,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -5462,7 +5494,9 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
+      <c r="P128" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
@@ -5476,7 +5510,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -5505,7 +5539,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -5520,7 +5554,9 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
+      <c r="P130" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
@@ -5534,7 +5570,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -5563,7 +5599,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5592,7 +5628,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5621,7 +5657,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -5650,7 +5686,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -5679,7 +5715,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5708,7 +5744,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5737,7 +5773,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5766,7 +5802,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -5795,7 +5831,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5824,7 +5860,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5853,7 +5889,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5882,7 +5918,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5911,7 +5947,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5940,7 +5976,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5969,7 +6005,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -5998,7 +6034,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -6027,7 +6063,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -6042,7 +6078,9 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
+      <c r="P148" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
@@ -6056,7 +6094,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -6085,7 +6123,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -6114,7 +6152,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -6143,7 +6181,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -6172,11 +6210,11 @@
         <v>150</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -6203,11 +6241,11 @@
         <v>151</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -6234,11 +6272,11 @@
         <v>152</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -6251,7 +6289,9 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
+      <c r="P155" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
@@ -6265,11 +6305,11 @@
         <v>153</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -6296,11 +6336,11 @@
         <v>154</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -6327,11 +6367,11 @@
         <v>155</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -6358,11 +6398,11 @@
         <v>156</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -6389,11 +6429,11 @@
         <v>157</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -6420,11 +6460,11 @@
         <v>158</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6451,11 +6491,11 @@
         <v>159</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6482,11 +6522,11 @@
         <v>160</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -6499,7 +6539,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
@@ -6515,7 +6555,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="9"/>
@@ -6530,7 +6570,7 @@
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
       <c r="O164" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
@@ -6546,7 +6586,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="9"/>
@@ -6575,7 +6615,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="9"/>
@@ -6604,7 +6644,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="9"/>
@@ -6633,7 +6673,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="9"/>
@@ -6662,7 +6702,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="9"/>
@@ -6691,7 +6731,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="9"/>
@@ -6720,7 +6760,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="9"/>
@@ -6749,7 +6789,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="9"/>
@@ -6764,7 +6804,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
@@ -6780,7 +6820,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="9"/>
@@ -6809,7 +6849,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="9"/>
@@ -6824,9 +6864,11 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
       <c r="O174" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P174" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
@@ -6840,7 +6882,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="9"/>
@@ -6869,7 +6911,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="9"/>
@@ -6884,9 +6926,11 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P176" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
@@ -6900,7 +6944,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="9"/>
@@ -6929,7 +6973,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="9"/>
@@ -6958,7 +7002,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="9"/>
@@ -6987,7 +7031,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="9"/>
@@ -7002,7 +7046,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
@@ -7018,7 +7062,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -7047,7 +7091,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -7076,7 +7120,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -7091,7 +7135,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
@@ -7107,7 +7151,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -7122,7 +7166,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
@@ -7138,7 +7182,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -7153,7 +7197,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
@@ -7169,7 +7213,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -7190,7 +7234,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
       <c r="U186" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
@@ -7200,7 +7244,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -7221,7 +7265,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
       <c r="U187" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
@@ -7231,7 +7275,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -7246,7 +7290,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
@@ -7254,7 +7298,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
       <c r="U188" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
@@ -7264,7 +7308,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -7285,7 +7329,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
       <c r="U189" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
@@ -7295,7 +7339,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -7316,7 +7360,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
       <c r="U190" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
@@ -7326,7 +7370,7 @@
         <v>188</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -7347,7 +7391,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
       <c r="U191" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
@@ -7357,7 +7401,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -7376,7 +7420,7 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
@@ -7388,7 +7432,7 @@
         <v>190</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -7403,13 +7447,13 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
       <c r="O193" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
@@ -7421,7 +7465,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -7440,7 +7484,7 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
@@ -7452,7 +7496,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -7471,7 +7515,7 @@
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
@@ -7483,7 +7527,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -7502,7 +7546,7 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
@@ -7514,7 +7558,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -7533,7 +7577,7 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
@@ -7545,7 +7589,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -7564,7 +7608,7 @@
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
@@ -7576,7 +7620,7 @@
         <v>196</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -7595,7 +7639,7 @@
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
@@ -7607,7 +7651,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -7626,7 +7670,7 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
@@ -7638,7 +7682,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -7657,7 +7701,7 @@
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
@@ -7669,7 +7713,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -7688,7 +7732,7 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T202" s="1"/>
       <c r="U202" s="1"/>
@@ -7700,7 +7744,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -7715,13 +7759,13 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
@@ -7733,7 +7777,7 @@
         <v>201</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -7752,7 +7796,7 @@
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
@@ -7764,7 +7808,7 @@
         <v>202</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -7783,7 +7827,7 @@
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
@@ -7795,7 +7839,7 @@
         <v>203</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -7814,7 +7858,7 @@
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
@@ -7826,7 +7870,7 @@
         <v>204</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -7841,13 +7885,13 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
@@ -7859,7 +7903,7 @@
         <v>205</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -7878,7 +7922,7 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
       <c r="S208" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
@@ -7890,7 +7934,7 @@
         <v>206</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -7909,7 +7953,7 @@
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
       <c r="S209" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
@@ -7921,7 +7965,7 @@
         <v>207</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -7940,7 +7984,7 @@
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
       <c r="S210" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
@@ -7952,7 +7996,7 @@
         <v>208</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -7971,7 +8015,7 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
@@ -7983,7 +8027,7 @@
         <v>209</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -8002,7 +8046,7 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
@@ -8014,7 +8058,7 @@
         <v>210</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -8033,7 +8077,7 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
       <c r="S213" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
@@ -8045,7 +8089,7 @@
         <v>211</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -8064,7 +8108,7 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
       <c r="S214" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
@@ -8076,7 +8120,7 @@
         <v>212</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -8091,7 +8135,7 @@
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>

--- a/LINE/シリーズごとのリスト.xlsx
+++ b/LINE/シリーズごとのリスト.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\副業\LINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD6B3DD-86B6-4F83-BCFD-87B16F6D2962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB87EB9-AF05-47E0-B051-A0A62B2979E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AA$230</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,16 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="232">
-  <si>
-    <t>超絶ごめんなさい</t>
-  </si>
-  <si>
-    <t>ありがとう</t>
-  </si>
-  <si>
-    <t>また会おう</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
   <si>
     <t>なんでやねん</t>
   </si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>ここ良いよ</t>
-  </si>
-  <si>
-    <t>楽しい時間をありがと</t>
   </si>
   <si>
     <t>トイレに行ってきます</t>
@@ -1067,6 +1058,22 @@
   </si>
   <si>
     <t>はしゃいでしまった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超絶ごめんなさい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありがとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また会おう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽しい時間をありがと</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1667,13 +1674,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
+      <selection pane="bottomRight" activeCell="Y231" sqref="Y231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1688,10 +1696,10 @@
     <row r="1" spans="1:27" ht="22.5">
       <c r="A1" s="18"/>
       <c r="B1" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -1751,61 +1759,61 @@
       <c r="A3" s="20"/>
       <c r="B3" s="17"/>
       <c r="C3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="T3" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
@@ -1815,15 +1823,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1832,7 +1842,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1848,15 +1858,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1865,10 +1877,10 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1883,13 +1895,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1907,12 +1921,12 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1939,12 +1953,12 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1971,12 +1985,12 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2003,12 +2017,12 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2040,13 +2054,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2067,12 +2083,12 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2099,12 +2115,12 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2128,12 +2144,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2157,12 +2173,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2186,12 +2202,12 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2215,12 +2231,12 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2244,12 +2260,12 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2278,13 +2294,15 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2307,13 +2325,15 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2331,12 +2351,12 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2365,13 +2385,15 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2389,12 +2411,12 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2418,12 +2440,12 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2447,12 +2469,12 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2476,12 +2498,12 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2505,12 +2527,12 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2526,7 +2548,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2536,12 +2558,12 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2565,12 +2587,12 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2594,12 +2616,12 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2628,13 +2650,15 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2644,7 +2668,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -2654,12 +2678,12 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2683,12 +2707,12 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2712,12 +2736,12 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2741,12 +2765,12 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2770,12 +2794,12 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2799,12 +2823,12 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2828,12 +2852,12 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2857,12 +2881,12 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2886,12 +2910,12 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="3">
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2915,12 +2939,12 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="3">
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2944,12 +2968,12 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="3">
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2973,12 +2997,12 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="3">
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3002,12 +3026,12 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="3">
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3031,12 +3055,12 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="3">
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3060,12 +3084,12 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="3">
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3089,12 +3113,12 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="3">
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3118,12 +3142,12 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="3">
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3147,12 +3171,12 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="3">
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3176,12 +3200,12 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="3">
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3205,12 +3229,12 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="3">
         <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3234,12 +3258,12 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="3">
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3263,12 +3287,12 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="3">
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3292,12 +3316,12 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="3">
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3321,12 +3345,12 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="55" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="3">
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3350,12 +3374,12 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="3">
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3379,12 +3403,12 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="3">
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3408,12 +3432,12 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="3">
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3437,12 +3461,12 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="3">
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3466,12 +3490,12 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="60" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="3">
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3495,12 +3519,12 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="3">
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3524,12 +3548,12 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="3">
         <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3553,12 +3577,12 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="3">
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3582,12 +3606,12 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="3">
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3603,7 +3627,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -3613,12 +3637,12 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="3">
         <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3642,12 +3666,12 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="66" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="3">
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3671,12 +3695,12 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="3">
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3700,12 +3724,12 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="3">
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3729,12 +3753,12 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3750,7 +3774,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -3760,12 +3784,12 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="3">
         <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3789,12 +3813,12 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="3">
         <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3818,12 +3842,12 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="3">
         <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3847,12 +3871,12 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="3">
         <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3876,12 +3900,12 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="74" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A74" s="3">
         <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3905,12 +3929,12 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A75" s="3">
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3934,12 +3958,12 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A76" s="3">
         <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3957,7 +3981,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
@@ -3965,12 +3989,12 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="77" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A77" s="3">
         <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3988,7 +4012,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -3996,12 +4020,12 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="78" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="3">
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4019,7 +4043,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -4027,12 +4051,12 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="3">
         <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4050,7 +4074,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -4058,12 +4082,12 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="3">
         <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4081,7 +4105,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -4089,12 +4113,12 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="3">
         <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -4112,7 +4136,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -4120,12 +4144,12 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="3">
         <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4141,11 +4165,11 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
@@ -4153,12 +4177,12 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="3">
         <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4176,22 +4200,22 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="3">
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4209,7 +4233,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
@@ -4217,12 +4241,12 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="3">
         <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4246,12 +4270,12 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="3">
         <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4275,12 +4299,12 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="3">
         <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4304,12 +4328,12 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="88" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="3">
         <v>85</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4325,7 +4349,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -4335,12 +4359,12 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="3">
         <v>86</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4364,12 +4388,12 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="3">
         <v>87</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4393,12 +4417,12 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="91" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="3">
         <v>88</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4414,7 +4438,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -4424,12 +4448,12 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="92" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="3">
         <v>89</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4453,12 +4477,12 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="93" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="3">
         <v>90</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4482,12 +4506,12 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="94" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="3">
         <v>91</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4511,12 +4535,12 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="95" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="3">
         <v>92</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4540,12 +4564,12 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="96" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="3">
         <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4569,12 +4593,12 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="97" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="3">
         <v>94</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4598,12 +4622,12 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="98" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="3">
         <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4627,12 +4651,12 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="3">
         <v>96</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4656,12 +4680,12 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="3">
         <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4685,12 +4709,12 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="3">
         <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4714,12 +4738,12 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="3">
         <v>99</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4743,12 +4767,12 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="3">
         <v>100</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4772,12 +4796,12 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="3">
         <v>101</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4801,12 +4825,12 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="105" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="3">
         <v>102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4830,12 +4854,12 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="106" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="3">
         <v>103</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4859,12 +4883,12 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="107" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="3">
         <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4888,12 +4912,12 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="108" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="3">
         <v>105</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4917,12 +4941,12 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="109" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="3">
         <v>106</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4946,12 +4970,12 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="110" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="3">
         <v>107</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4975,12 +4999,12 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="111" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="3">
         <v>108</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -5004,12 +5028,12 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="112" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="3">
         <v>109</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -5025,7 +5049,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -5035,12 +5059,12 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="113" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="3">
         <v>110</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -5056,7 +5080,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -5066,12 +5090,12 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="114" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="3">
         <v>111</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -5095,12 +5119,12 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="115" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="3">
         <v>112</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -5124,12 +5148,12 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="116" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="3">
         <v>113</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -5153,12 +5177,12 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="117" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="3">
         <v>114</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -5182,12 +5206,12 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="118" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="3">
         <v>115</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -5211,12 +5235,12 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="119" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="3">
         <v>116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -5240,12 +5264,12 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="120" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="3">
         <v>117</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -5269,12 +5293,12 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="121" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="3">
         <v>118</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -5298,12 +5322,12 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="122" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="3">
         <v>119</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -5327,12 +5351,12 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="123" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="3">
         <v>120</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -5356,12 +5380,12 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="124" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="3">
         <v>121</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -5385,12 +5409,12 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="125" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="3">
         <v>122</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -5414,12 +5438,12 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="126" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="3">
         <v>123</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -5435,7 +5459,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -5445,12 +5469,12 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="127" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="3">
         <v>124</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -5474,12 +5498,12 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="128" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="3">
         <v>125</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -5495,7 +5519,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
@@ -5505,12 +5529,12 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="129" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="3">
         <v>126</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -5534,12 +5558,12 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="130" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="3">
         <v>127</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -5555,7 +5579,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
@@ -5565,12 +5589,12 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="131" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="3">
         <v>128</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -5594,12 +5618,12 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="132" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="3">
         <v>129</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5623,12 +5647,12 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="133" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="3">
         <v>130</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5652,12 +5676,12 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="134" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="3">
         <v>131</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -5681,12 +5705,12 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="135" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="3">
         <v>132</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -5710,12 +5734,12 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="136" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="3">
         <v>133</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5739,12 +5763,12 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="137" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="3">
         <v>134</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5768,12 +5792,12 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="138" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="3">
         <v>135</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5797,12 +5821,12 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="139" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="3">
         <v>136</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -5826,12 +5850,12 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="140" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="3">
         <v>137</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5855,12 +5879,12 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="141" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="3">
         <v>138</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5884,12 +5908,12 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="142" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="3">
         <v>139</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5913,12 +5937,12 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="143" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="3">
         <v>140</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5942,12 +5966,12 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="144" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="3">
         <v>141</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5971,12 +5995,12 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="145" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="3">
         <v>142</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -6000,12 +6024,12 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="146" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="3">
         <v>143</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -6029,12 +6053,12 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="147" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="3">
         <v>144</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -6058,12 +6082,12 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="148" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="3">
         <v>145</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -6079,7 +6103,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
@@ -6089,12 +6113,12 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="149" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="3">
         <v>146</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -6118,12 +6142,12 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="150" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="3">
         <v>147</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -6147,12 +6171,12 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="151" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="3">
         <v>148</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -6176,12 +6200,12 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="152" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="3">
         <v>149</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -6205,16 +6229,16 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="153" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="3">
         <v>150</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -6236,16 +6260,16 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="154" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="3">
         <v>151</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -6267,16 +6291,16 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="155" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="3">
         <v>152</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -6290,7 +6314,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
@@ -6300,16 +6324,16 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="156" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="3">
         <v>153</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -6331,16 +6355,16 @@
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
     </row>
-    <row r="157" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="157" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="3">
         <v>154</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -6362,16 +6386,16 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
     </row>
-    <row r="158" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="158" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A158" s="3">
         <v>155</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -6393,16 +6417,16 @@
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
     </row>
-    <row r="159" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="159" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="3">
         <v>156</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -6424,16 +6448,16 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="160" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="3">
         <v>157</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -6455,16 +6479,16 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" spans="1:23" ht="15" customHeight="1">
+    <row r="161" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="3">
         <v>158</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -6486,16 +6510,16 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="1:23" ht="15" customHeight="1">
+    <row r="162" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="3">
         <v>159</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -6517,16 +6541,16 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="1:23" ht="15" customHeight="1">
+    <row r="163" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="3">
         <v>160</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -6539,7 +6563,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
@@ -6550,12 +6574,12 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="1:23" ht="15" customHeight="1">
+    <row r="164" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="3">
         <v>161</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="9"/>
@@ -6570,7 +6594,7 @@
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
       <c r="O164" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
@@ -6581,12 +6605,12 @@
       <c r="V164" s="3"/>
       <c r="W164" s="3"/>
     </row>
-    <row r="165" spans="1:23" ht="15" customHeight="1">
+    <row r="165" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="3">
         <v>162</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="9"/>
@@ -6610,12 +6634,12 @@
       <c r="V165" s="3"/>
       <c r="W165" s="3"/>
     </row>
-    <row r="166" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="166" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="3">
         <v>163</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="9"/>
@@ -6639,12 +6663,12 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="167" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="3">
         <v>164</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="9"/>
@@ -6668,12 +6692,12 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="168" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="3">
         <v>165</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="9"/>
@@ -6697,12 +6721,12 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="169" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="3">
         <v>166</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="9"/>
@@ -6726,12 +6750,12 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="170" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="3">
         <v>167</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="9"/>
@@ -6755,12 +6779,12 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="171" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="3">
         <v>168</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="9"/>
@@ -6784,12 +6808,12 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="172" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="3">
         <v>169</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="9"/>
@@ -6804,7 +6828,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
@@ -6815,12 +6839,12 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="173" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="3">
         <v>170</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="9"/>
@@ -6844,12 +6868,12 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="174" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="3">
         <v>171</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="9"/>
@@ -6864,10 +6888,10 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
       <c r="O174" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
@@ -6877,12 +6901,12 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="175" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="3">
         <v>172</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="9"/>
@@ -6906,12 +6930,12 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="176" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="3">
         <v>173</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="9"/>
@@ -6926,10 +6950,10 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
@@ -6939,12 +6963,12 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="177" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A177" s="3">
         <v>174</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="9"/>
@@ -6968,12 +6992,12 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="178" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A178" s="3">
         <v>175</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="9"/>
@@ -6997,12 +7021,12 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="179" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A179" s="3">
         <v>176</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="9"/>
@@ -7026,12 +7050,12 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="180" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A180" s="3">
         <v>177</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="9"/>
@@ -7046,7 +7070,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
@@ -7057,12 +7081,12 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="181" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A181" s="3">
         <v>178</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -7086,12 +7110,12 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="182" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A182" s="3">
         <v>179</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -7115,12 +7139,12 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="183" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A183" s="3">
         <v>180</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -7135,7 +7159,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
@@ -7146,12 +7170,12 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="184" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A184" s="3">
         <v>181</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -7166,7 +7190,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
@@ -7177,12 +7201,12 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="185" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A185" s="3">
         <v>182</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -7197,7 +7221,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
@@ -7208,12 +7232,12 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="186" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A186" s="3">
         <v>183</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -7234,17 +7258,17 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
       <c r="U186" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="187" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A187" s="3">
         <v>184</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -7265,17 +7289,17 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
       <c r="U187" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="188" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A188" s="3">
         <v>185</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -7290,7 +7314,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
@@ -7298,17 +7322,17 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
       <c r="U188" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="189" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A189" s="3">
         <v>186</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -7329,17 +7353,17 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
       <c r="U189" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="190" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A190" s="3">
         <v>187</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -7360,17 +7384,17 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
       <c r="U190" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="191" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A191" s="3">
         <v>188</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -7391,17 +7415,17 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
       <c r="U191" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="192" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A192" s="3">
         <v>189</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -7420,19 +7444,19 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="193" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A193" s="3">
         <v>190</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -7447,25 +7471,25 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
       <c r="O193" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="194" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A194" s="3">
         <v>191</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -7484,19 +7508,19 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="195" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A195" s="3">
         <v>192</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -7515,19 +7539,19 @@
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="196" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A196" s="3">
         <v>193</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -7546,19 +7570,19 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="197" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A197" s="3">
         <v>194</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -7577,19 +7601,19 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="198" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A198" s="3">
         <v>195</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -7608,19 +7632,19 @@
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="199" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A199" s="3">
         <v>196</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -7639,19 +7663,19 @@
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="200" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A200" s="3">
         <v>197</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -7670,19 +7694,19 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="201" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A201" s="3">
         <v>198</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -7701,19 +7725,19 @@
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="202" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A202" s="3">
         <v>199</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -7732,19 +7756,19 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T202" s="1"/>
       <c r="U202" s="1"/>
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="203" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A203" s="3">
         <v>200</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -7759,25 +7783,25 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="204" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A204" s="3">
         <v>201</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -7796,19 +7820,19 @@
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="205" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A205" s="3">
         <v>202</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -7827,19 +7851,19 @@
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="206" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A206" s="3">
         <v>203</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -7858,19 +7882,19 @@
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="207" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A207" s="3">
         <v>204</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -7885,25 +7909,25 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="208" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A208" s="3">
         <v>205</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -7922,19 +7946,19 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
       <c r="S208" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="209" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A209" s="3">
         <v>206</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -7953,19 +7977,19 @@
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
       <c r="S209" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="210" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A210" s="3">
         <v>207</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -7984,19 +8008,19 @@
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
       <c r="S210" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
     </row>
-    <row r="211" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="211" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A211" s="3">
         <v>208</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -8015,19 +8039,19 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
     </row>
-    <row r="212" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="212" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A212" s="3">
         <v>209</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -8046,19 +8070,19 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="213" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A213" s="3">
         <v>210</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -8077,19 +8101,19 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
       <c r="S213" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="214" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A214" s="3">
         <v>211</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -8108,19 +8132,19 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
       <c r="S214" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="215" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A215" s="3">
         <v>212</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -8135,7 +8159,7 @@
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
@@ -8146,7 +8170,7 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="216" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A216" s="3">
         <v>213</v>
       </c>
@@ -8173,7 +8197,7 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="217" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A217" s="3">
         <v>214</v>
       </c>
@@ -8200,7 +8224,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="218" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A218" s="3">
         <v>215</v>
       </c>
@@ -8227,7 +8251,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
     </row>
-    <row r="219" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="219" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A219" s="3">
         <v>216</v>
       </c>
@@ -8254,7 +8278,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="220" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A220" s="3">
         <v>217</v>
       </c>
@@ -8281,7 +8305,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="221" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A221" s="3">
         <v>218</v>
       </c>
@@ -8308,7 +8332,7 @@
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="222" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A222" s="3">
         <v>219</v>
       </c>
@@ -8335,7 +8359,7 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="223" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A223" s="3">
         <v>220</v>
       </c>
@@ -8362,7 +8386,7 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="224" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A224" s="3">
         <v>221</v>
       </c>
@@ -8389,7 +8413,7 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="225" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A225" s="3">
         <v>222</v>
       </c>
@@ -8416,7 +8440,7 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="226" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A226" s="3">
         <v>223</v>
       </c>
@@ -8443,7 +8467,7 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="227" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A227" s="3">
         <v>224</v>
       </c>
@@ -8470,7 +8494,7 @@
       <c r="V227" s="1"/>
       <c r="W227" s="1"/>
     </row>
-    <row r="228" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="228" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A228" s="3">
         <v>225</v>
       </c>
@@ -8497,7 +8521,7 @@
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="229" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A229" s="3">
         <v>226</v>
       </c>
@@ -8524,7 +8548,7 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
     </row>
-    <row r="230" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="230" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A230" s="3">
         <v>227</v>
       </c>
@@ -8552,6 +8576,13 @@
       <c r="W230" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AA230" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A3"/>

--- a/LINE/シリーズごとのリスト.xlsx
+++ b/LINE/シリーズごとのリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\副業\LINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB87EB9-AF05-47E0-B051-A0A62B2979E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBEA941-59D9-4C1C-8AA3-0C0A35A2F4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="232">
   <si>
     <t>なんでやねん</t>
   </si>
@@ -1674,14 +1674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y231" sqref="Y231"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1921,7 +1920,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1953,7 +1952,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1985,7 +1984,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2017,7 +2016,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2083,7 +2082,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2115,7 +2114,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2144,7 +2143,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2173,7 +2172,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2202,7 +2201,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2231,7 +2230,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2260,7 +2259,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2300,9 +2299,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2331,9 +2328,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2351,7 +2346,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2411,7 +2406,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2440,7 +2435,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2469,7 +2464,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2498,7 +2493,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2527,7 +2522,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2558,7 +2553,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2587,7 +2582,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2616,7 +2611,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2678,7 +2673,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2707,7 +2702,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="33" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2736,7 +2731,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="34" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -2765,7 +2760,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="35" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -2794,7 +2789,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="36" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -2823,7 +2818,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -2852,7 +2847,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -2881,7 +2876,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -2910,7 +2905,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="40" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -2939,7 +2934,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="41" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -2968,7 +2963,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -2997,7 +2992,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="43" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -3026,7 +3021,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="44" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3055,7 +3050,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="45" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -3084,7 +3079,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="46" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -3113,7 +3108,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="47" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -3142,7 +3137,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -3171,7 +3166,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -3200,7 +3195,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -3229,7 +3224,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -3258,7 +3253,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="52" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -3287,7 +3282,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="53" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -3316,7 +3311,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="54" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -3345,7 +3340,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -3374,7 +3369,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -3403,7 +3398,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -3432,7 +3427,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -3461,7 +3456,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -3490,7 +3485,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -3519,7 +3514,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -3548,7 +3543,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -3577,7 +3572,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="63" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -3606,7 +3601,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -3637,7 +3632,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="65" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -3666,7 +3661,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="66" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -3695,7 +3690,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -3724,7 +3719,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -3753,7 +3748,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="69" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -3784,7 +3779,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -3813,7 +3808,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -3842,7 +3837,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -3871,7 +3866,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -3900,7 +3895,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="74" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -3929,7 +3924,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="75" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -3958,7 +3953,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="76" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -3989,7 +3984,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="77" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -4020,7 +4015,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="78" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -4051,7 +4046,7 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="79" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -4082,7 +4077,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="80" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -4113,7 +4108,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="81" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -4144,7 +4139,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="82" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -4177,7 +4172,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -4210,7 +4205,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -4241,7 +4236,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -4270,7 +4265,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -4299,7 +4294,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -4328,7 +4323,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -4359,7 +4354,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -4388,7 +4383,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -4417,7 +4412,7 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -4448,7 +4443,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -4477,7 +4472,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -4506,7 +4501,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -4535,7 +4530,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -4564,7 +4559,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -4593,7 +4588,7 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -4622,7 +4617,7 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -4633,7 +4628,9 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -4651,7 +4648,7 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -4680,7 +4677,7 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -4709,7 +4706,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -4738,7 +4735,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -4767,7 +4764,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -4796,7 +4793,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -4825,7 +4822,7 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="105" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -4854,7 +4851,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="106" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -4883,7 +4880,7 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="107" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -4912,7 +4909,7 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -4941,7 +4938,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -4970,7 +4967,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -4999,7 +4996,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -5028,7 +5025,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="112" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -5059,7 +5056,7 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="113" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -5090,7 +5087,7 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="114" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -5119,7 +5116,7 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="115" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -5148,7 +5145,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="116" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -5177,7 +5174,7 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="117" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -5206,7 +5203,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="118" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -5235,7 +5232,7 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="119" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -5264,7 +5261,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="120" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -5293,7 +5290,7 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -5322,7 +5319,7 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -5351,7 +5348,7 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="123" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -5380,7 +5377,7 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -5409,7 +5406,7 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="125" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -5438,7 +5435,7 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="126" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -5469,7 +5466,7 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -5498,7 +5495,7 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="128" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -5529,7 +5526,7 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="129" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -5558,7 +5555,7 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -5589,7 +5586,7 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -5618,7 +5615,7 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -5647,7 +5644,7 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -5676,7 +5673,7 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -5705,7 +5702,7 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -5734,7 +5731,7 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -5763,7 +5760,7 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -5792,7 +5789,7 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="138" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -5821,7 +5818,7 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="139" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -5850,7 +5847,7 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="140" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -5879,7 +5876,7 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="141" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -5908,7 +5905,7 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="142" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A142" s="3">
         <v>139</v>
       </c>
@@ -5937,7 +5934,7 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="143" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A143" s="3">
         <v>140</v>
       </c>
@@ -5966,7 +5963,7 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="144" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A144" s="3">
         <v>141</v>
       </c>
@@ -5995,7 +5992,7 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="145" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A145" s="3">
         <v>142</v>
       </c>
@@ -6024,7 +6021,7 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="146" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="3">
         <v>143</v>
       </c>
@@ -6053,7 +6050,7 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="147" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A147" s="3">
         <v>144</v>
       </c>
@@ -6082,7 +6079,7 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="148" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A148" s="3">
         <v>145</v>
       </c>
@@ -6113,7 +6110,7 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="149" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A149" s="3">
         <v>146</v>
       </c>
@@ -6142,7 +6139,7 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="150" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="3">
         <v>147</v>
       </c>
@@ -6171,7 +6168,7 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="151" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A151" s="3">
         <v>148</v>
       </c>
@@ -6200,7 +6197,7 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="152" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A152" s="3">
         <v>149</v>
       </c>
@@ -6229,7 +6226,7 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="153" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A153" s="3">
         <v>150</v>
       </c>
@@ -6260,7 +6257,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="154" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="3">
         <v>151</v>
       </c>
@@ -6291,7 +6288,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="155" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A155" s="3">
         <v>152</v>
       </c>
@@ -6324,7 +6321,7 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="156" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A156" s="3">
         <v>153</v>
       </c>
@@ -6355,7 +6352,7 @@
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
     </row>
-    <row r="157" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="157" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A157" s="3">
         <v>154</v>
       </c>
@@ -6386,7 +6383,7 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
     </row>
-    <row r="158" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="158" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A158" s="3">
         <v>155</v>
       </c>
@@ -6417,7 +6414,7 @@
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
     </row>
-    <row r="159" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="159" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A159" s="3">
         <v>156</v>
       </c>
@@ -6448,7 +6445,7 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A160" s="3">
         <v>157</v>
       </c>
@@ -6479,7 +6476,7 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:23" ht="15" customHeight="1">
       <c r="A161" s="3">
         <v>158</v>
       </c>
@@ -6510,7 +6507,7 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:23" ht="15" customHeight="1">
       <c r="A162" s="3">
         <v>159</v>
       </c>
@@ -6541,7 +6538,7 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:23" ht="15" customHeight="1">
       <c r="A163" s="3">
         <v>160</v>
       </c>
@@ -6574,7 +6571,7 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="164" spans="1:23" ht="15" customHeight="1">
       <c r="A164" s="3">
         <v>161</v>
       </c>
@@ -6605,7 +6602,7 @@
       <c r="V164" s="3"/>
       <c r="W164" s="3"/>
     </row>
-    <row r="165" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:23" ht="15" customHeight="1">
       <c r="A165" s="3">
         <v>162</v>
       </c>
@@ -6634,7 +6631,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="3"/>
     </row>
-    <row r="166" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A166" s="3">
         <v>163</v>
       </c>
@@ -6663,7 +6660,7 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A167" s="3">
         <v>164</v>
       </c>
@@ -6692,7 +6689,7 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A168" s="3">
         <v>165</v>
       </c>
@@ -6721,7 +6718,7 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A169" s="3">
         <v>166</v>
       </c>
@@ -6750,7 +6747,7 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A170" s="3">
         <v>167</v>
       </c>
@@ -6779,7 +6776,7 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A171" s="3">
         <v>168</v>
       </c>
@@ -6808,7 +6805,7 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A172" s="3">
         <v>169</v>
       </c>
@@ -6839,7 +6836,7 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A173" s="3">
         <v>170</v>
       </c>
@@ -6868,7 +6865,7 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="174" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A174" s="3">
         <v>171</v>
       </c>
@@ -6901,7 +6898,7 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A175" s="3">
         <v>172</v>
       </c>
@@ -6930,7 +6927,7 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="176" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A176" s="3">
         <v>173</v>
       </c>
@@ -6963,7 +6960,7 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="177" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A177" s="3">
         <v>174</v>
       </c>
@@ -6992,7 +6989,7 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="178" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="3">
         <v>175</v>
       </c>
@@ -7021,7 +7018,7 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="179" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A179" s="3">
         <v>176</v>
       </c>
@@ -7050,7 +7047,7 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="180" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A180" s="3">
         <v>177</v>
       </c>
@@ -7081,7 +7078,7 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="181" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="3">
         <v>178</v>
       </c>
@@ -7110,7 +7107,7 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="182" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="3">
         <v>179</v>
       </c>
@@ -7139,7 +7136,7 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="183" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A183" s="3">
         <v>180</v>
       </c>
@@ -7170,7 +7167,7 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="184" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A184" s="3">
         <v>181</v>
       </c>
@@ -7201,7 +7198,7 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="185" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A185" s="3">
         <v>182</v>
       </c>
@@ -7232,7 +7229,7 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="186" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="3">
         <v>183</v>
       </c>
@@ -7263,7 +7260,7 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="187" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="3">
         <v>184</v>
       </c>
@@ -7294,7 +7291,7 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="188" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="3">
         <v>185</v>
       </c>
@@ -7327,7 +7324,7 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="189" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="3">
         <v>186</v>
       </c>
@@ -7358,7 +7355,7 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="190" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="3">
         <v>187</v>
       </c>
@@ -7389,7 +7386,7 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="191" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="3">
         <v>188</v>
       </c>
@@ -7420,7 +7417,7 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="192" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="3">
         <v>189</v>
       </c>
@@ -7451,7 +7448,7 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="193" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="3">
         <v>190</v>
       </c>
@@ -7484,7 +7481,7 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="194" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="3">
         <v>191</v>
       </c>
@@ -7515,7 +7512,7 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="195" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="3">
         <v>192</v>
       </c>
@@ -7546,7 +7543,7 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="196" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="3">
         <v>193</v>
       </c>
@@ -7577,7 +7574,7 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="197" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="3">
         <v>194</v>
       </c>
@@ -7608,7 +7605,7 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="198" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="3">
         <v>195</v>
       </c>
@@ -7639,7 +7636,7 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="199" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="3">
         <v>196</v>
       </c>
@@ -7670,7 +7667,7 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="200" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="3">
         <v>197</v>
       </c>
@@ -7701,7 +7698,7 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="201" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="3">
         <v>198</v>
       </c>
@@ -7732,7 +7729,7 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="202" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="3">
         <v>199</v>
       </c>
@@ -7763,7 +7760,7 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="203" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="3">
         <v>200</v>
       </c>
@@ -7796,7 +7793,7 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="204" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A204" s="3">
         <v>201</v>
       </c>
@@ -7827,7 +7824,7 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="205" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A205" s="3">
         <v>202</v>
       </c>
@@ -7858,7 +7855,7 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="206" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A206" s="3">
         <v>203</v>
       </c>
@@ -7889,7 +7886,7 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="207" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="3">
         <v>204</v>
       </c>
@@ -7922,7 +7919,7 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="208" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A208" s="3">
         <v>205</v>
       </c>
@@ -7953,7 +7950,7 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="209" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A209" s="3">
         <v>206</v>
       </c>
@@ -7984,7 +7981,7 @@
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="210" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A210" s="3">
         <v>207</v>
       </c>
@@ -8015,7 +8012,7 @@
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
     </row>
-    <row r="211" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="211" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A211" s="3">
         <v>208</v>
       </c>
@@ -8046,7 +8043,7 @@
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
     </row>
-    <row r="212" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="212" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A212" s="3">
         <v>209</v>
       </c>
@@ -8077,7 +8074,7 @@
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="213" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A213" s="3">
         <v>210</v>
       </c>
@@ -8108,7 +8105,7 @@
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="214" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A214" s="3">
         <v>211</v>
       </c>
@@ -8139,7 +8136,7 @@
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="215" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A215" s="3">
         <v>212</v>
       </c>
@@ -8170,7 +8167,7 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="216" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A216" s="3">
         <v>213</v>
       </c>
@@ -8197,7 +8194,7 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="217" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A217" s="3">
         <v>214</v>
       </c>
@@ -8224,7 +8221,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="218" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="3">
         <v>215</v>
       </c>
@@ -8251,7 +8248,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
     </row>
-    <row r="219" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="219" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A219" s="3">
         <v>216</v>
       </c>
@@ -8278,7 +8275,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="220" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A220" s="3">
         <v>217</v>
       </c>
@@ -8305,7 +8302,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="221" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A221" s="3">
         <v>218</v>
       </c>
@@ -8332,7 +8329,7 @@
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="222" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A222" s="3">
         <v>219</v>
       </c>
@@ -8359,7 +8356,7 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="223" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A223" s="3">
         <v>220</v>
       </c>
@@ -8386,7 +8383,7 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="224" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A224" s="3">
         <v>221</v>
       </c>
@@ -8413,7 +8410,7 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="225" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A225" s="3">
         <v>222</v>
       </c>
@@ -8440,7 +8437,7 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="226" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A226" s="3">
         <v>223</v>
       </c>
@@ -8467,7 +8464,7 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="227" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A227" s="3">
         <v>224</v>
       </c>
@@ -8494,7 +8491,7 @@
       <c r="V227" s="1"/>
       <c r="W227" s="1"/>
     </row>
-    <row r="228" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="228" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A228" s="3">
         <v>225</v>
       </c>
@@ -8521,7 +8518,7 @@
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="229" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A229" s="3">
         <v>226</v>
       </c>
@@ -8548,7 +8545,7 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
     </row>
-    <row r="230" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="230" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A230" s="3">
         <v>227</v>
       </c>
@@ -8576,13 +8573,7 @@
       <c r="W230" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA230" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AA230" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A3"/>

--- a/LINE/シリーズごとのリスト.xlsx
+++ b/LINE/シリーズごとのリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\副業\LINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBEA941-59D9-4C1C-8AA3-0C0A35A2F4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2043DD9-BA8C-4751-ADEA-65D2D7B5E0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1674,13 +1674,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1920,7 +1921,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1952,7 +1953,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1984,7 +1985,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2016,7 +2017,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2082,7 +2083,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2114,7 +2115,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2143,7 +2144,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2172,7 +2173,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2201,7 +2202,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2230,7 +2231,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2259,7 +2260,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2288,7 +2289,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2317,7 +2318,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2346,7 +2347,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2406,7 +2407,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2435,7 +2436,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2464,7 +2465,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2493,7 +2494,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2522,7 +2523,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2553,7 +2554,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2582,7 +2583,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2611,7 +2612,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2673,7 +2674,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2702,7 +2703,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2731,7 +2732,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -2760,7 +2761,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -2789,7 +2790,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -2818,7 +2819,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -2847,7 +2848,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -2876,7 +2877,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -2905,7 +2906,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -2934,7 +2935,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -2963,7 +2964,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -2992,7 +2993,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -3021,7 +3022,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3050,7 +3051,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -3079,7 +3080,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -3108,7 +3109,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -3137,7 +3138,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -3166,7 +3167,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -3195,7 +3196,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -3224,7 +3225,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -3253,7 +3254,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -3282,7 +3283,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -3311,7 +3312,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -3340,7 +3341,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="55" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -3369,7 +3370,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -3398,7 +3399,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -3427,7 +3428,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -3456,7 +3457,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -3485,7 +3486,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="60" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -3514,7 +3515,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -3543,7 +3544,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -3572,7 +3573,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -3601,7 +3602,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -3632,7 +3633,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -3661,7 +3662,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="66" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -3690,7 +3691,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -3719,7 +3720,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -3748,7 +3749,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -3779,7 +3780,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -3808,7 +3809,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -3837,7 +3838,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -3866,7 +3867,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -3895,7 +3896,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="74" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -3924,7 +3925,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -3953,7 +3954,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -3984,7 +3985,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="77" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -4015,7 +4016,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="78" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -4046,7 +4047,7 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -4077,7 +4078,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -4108,7 +4109,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -4139,7 +4140,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -4172,7 +4173,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -4205,7 +4206,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -4236,7 +4237,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -4265,7 +4266,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -4294,7 +4295,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -4323,7 +4324,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="88" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -4354,7 +4355,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -4383,7 +4384,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -4412,7 +4413,7 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="91" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -4443,7 +4444,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="92" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -4472,7 +4473,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="93" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -4501,7 +4502,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="94" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -4530,7 +4531,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="95" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -4559,7 +4560,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="96" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -4588,7 +4589,7 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="97" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -4648,7 +4649,7 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -4677,7 +4678,7 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -4706,7 +4707,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -4735,7 +4736,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -4764,7 +4765,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -4793,7 +4794,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -4822,7 +4823,7 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="105" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -4851,7 +4852,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="106" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -4880,7 +4881,7 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="107" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -4909,7 +4910,7 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="108" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -4938,7 +4939,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="109" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -4967,7 +4968,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="110" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -4996,7 +4997,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="111" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -5025,7 +5026,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="112" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -5056,7 +5057,7 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="113" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -5087,7 +5088,7 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="114" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -5116,7 +5117,7 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="115" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -5145,7 +5146,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="116" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -5174,7 +5175,7 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="117" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -5203,7 +5204,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="118" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -5232,7 +5233,7 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="119" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -5261,7 +5262,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="120" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -5290,7 +5291,7 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="121" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -5319,7 +5320,7 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="122" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -5348,7 +5349,7 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="123" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -5377,7 +5378,7 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="124" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -5406,7 +5407,7 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="125" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -5435,7 +5436,7 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="126" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -5466,7 +5467,7 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="127" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -5495,7 +5496,7 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="128" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -5526,7 +5527,7 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="129" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -5555,7 +5556,7 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="130" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -5586,7 +5587,7 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="131" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -5615,7 +5616,7 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="132" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -5644,7 +5645,7 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="133" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -5673,7 +5674,7 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="134" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -5702,7 +5703,7 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="135" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -5731,7 +5732,7 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="136" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -5760,7 +5761,7 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="137" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -5789,7 +5790,7 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="138" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -5818,7 +5819,7 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="139" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -5847,7 +5848,7 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="140" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -5876,7 +5877,7 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="141" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -5905,7 +5906,7 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="142" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="3">
         <v>139</v>
       </c>
@@ -5934,7 +5935,7 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="143" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="3">
         <v>140</v>
       </c>
@@ -5963,7 +5964,7 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="144" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="3">
         <v>141</v>
       </c>
@@ -5992,7 +5993,7 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="145" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="3">
         <v>142</v>
       </c>
@@ -6021,7 +6022,7 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="146" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="3">
         <v>143</v>
       </c>
@@ -6050,7 +6051,7 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="147" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="3">
         <v>144</v>
       </c>
@@ -6079,7 +6080,7 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="148" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="3">
         <v>145</v>
       </c>
@@ -6110,7 +6111,7 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="149" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="3">
         <v>146</v>
       </c>
@@ -6139,7 +6140,7 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="150" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="3">
         <v>147</v>
       </c>
@@ -6168,7 +6169,7 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="151" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="3">
         <v>148</v>
       </c>
@@ -6197,7 +6198,7 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="152" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="3">
         <v>149</v>
       </c>
@@ -6226,7 +6227,7 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="153" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="3">
         <v>150</v>
       </c>
@@ -6257,7 +6258,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="154" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="3">
         <v>151</v>
       </c>
@@ -6288,7 +6289,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="155" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="3">
         <v>152</v>
       </c>
@@ -6321,7 +6322,7 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="156" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="3">
         <v>153</v>
       </c>
@@ -6352,7 +6353,7 @@
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
     </row>
-    <row r="157" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="157" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="3">
         <v>154</v>
       </c>
@@ -6383,7 +6384,7 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
     </row>
-    <row r="158" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="158" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A158" s="3">
         <v>155</v>
       </c>
@@ -6414,7 +6415,7 @@
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
     </row>
-    <row r="159" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="159" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A159" s="3">
         <v>156</v>
       </c>
@@ -6445,7 +6446,7 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="160" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="3">
         <v>157</v>
       </c>
@@ -6476,7 +6477,7 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" spans="1:23" ht="15" customHeight="1">
+    <row r="161" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="3">
         <v>158</v>
       </c>
@@ -6507,7 +6508,7 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="1:23" ht="15" customHeight="1">
+    <row r="162" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="3">
         <v>159</v>
       </c>
@@ -6538,7 +6539,7 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="1:23" ht="15" customHeight="1">
+    <row r="163" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="3">
         <v>160</v>
       </c>
@@ -6571,7 +6572,7 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="1:23" ht="15" customHeight="1">
+    <row r="164" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="3">
         <v>161</v>
       </c>
@@ -6602,7 +6603,7 @@
       <c r="V164" s="3"/>
       <c r="W164" s="3"/>
     </row>
-    <row r="165" spans="1:23" ht="15" customHeight="1">
+    <row r="165" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="3">
         <v>162</v>
       </c>
@@ -6631,7 +6632,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="3"/>
     </row>
-    <row r="166" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="166" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="3">
         <v>163</v>
       </c>
@@ -6660,7 +6661,7 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="167" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="3">
         <v>164</v>
       </c>
@@ -6689,7 +6690,7 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="168" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="3">
         <v>165</v>
       </c>
@@ -6718,7 +6719,7 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="169" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="3">
         <v>166</v>
       </c>
@@ -6747,7 +6748,7 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="170" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="3">
         <v>167</v>
       </c>
@@ -6776,7 +6777,7 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="171" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="3">
         <v>168</v>
       </c>
@@ -6805,7 +6806,7 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="172" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="3">
         <v>169</v>
       </c>
@@ -6836,7 +6837,7 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="173" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="3">
         <v>170</v>
       </c>
@@ -6865,7 +6866,7 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="174" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="3">
         <v>171</v>
       </c>
@@ -6898,7 +6899,7 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="175" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="3">
         <v>172</v>
       </c>
@@ -6927,7 +6928,7 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="176" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="3">
         <v>173</v>
       </c>
@@ -6960,7 +6961,7 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="177" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A177" s="3">
         <v>174</v>
       </c>
@@ -6989,7 +6990,7 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="178" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A178" s="3">
         <v>175</v>
       </c>
@@ -7018,7 +7019,7 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="179" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A179" s="3">
         <v>176</v>
       </c>
@@ -7047,7 +7048,7 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="180" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A180" s="3">
         <v>177</v>
       </c>
@@ -7078,7 +7079,7 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="181" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A181" s="3">
         <v>178</v>
       </c>
@@ -7107,7 +7108,7 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="182" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A182" s="3">
         <v>179</v>
       </c>
@@ -7136,7 +7137,7 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="183" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A183" s="3">
         <v>180</v>
       </c>
@@ -7167,7 +7168,7 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="184" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A184" s="3">
         <v>181</v>
       </c>
@@ -7198,7 +7199,7 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="185" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A185" s="3">
         <v>182</v>
       </c>
@@ -7229,7 +7230,7 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="186" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A186" s="3">
         <v>183</v>
       </c>
@@ -7260,7 +7261,7 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="187" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A187" s="3">
         <v>184</v>
       </c>
@@ -7291,7 +7292,7 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="188" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A188" s="3">
         <v>185</v>
       </c>
@@ -7324,7 +7325,7 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="189" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A189" s="3">
         <v>186</v>
       </c>
@@ -7355,7 +7356,7 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="190" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A190" s="3">
         <v>187</v>
       </c>
@@ -7386,7 +7387,7 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="191" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A191" s="3">
         <v>188</v>
       </c>
@@ -7417,7 +7418,7 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="192" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A192" s="3">
         <v>189</v>
       </c>
@@ -7448,7 +7449,7 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="193" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A193" s="3">
         <v>190</v>
       </c>
@@ -7481,7 +7482,7 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="194" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A194" s="3">
         <v>191</v>
       </c>
@@ -7512,7 +7513,7 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="195" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A195" s="3">
         <v>192</v>
       </c>
@@ -7543,7 +7544,7 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="196" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A196" s="3">
         <v>193</v>
       </c>
@@ -7574,7 +7575,7 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="197" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A197" s="3">
         <v>194</v>
       </c>
@@ -7605,7 +7606,7 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="198" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A198" s="3">
         <v>195</v>
       </c>
@@ -7636,7 +7637,7 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="199" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A199" s="3">
         <v>196</v>
       </c>
@@ -7667,7 +7668,7 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="200" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A200" s="3">
         <v>197</v>
       </c>
@@ -7698,7 +7699,7 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="201" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A201" s="3">
         <v>198</v>
       </c>
@@ -7729,7 +7730,7 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="202" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A202" s="3">
         <v>199</v>
       </c>
@@ -7760,7 +7761,7 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="203" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A203" s="3">
         <v>200</v>
       </c>
@@ -7793,7 +7794,7 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="204" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A204" s="3">
         <v>201</v>
       </c>
@@ -7824,7 +7825,7 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="205" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A205" s="3">
         <v>202</v>
       </c>
@@ -7855,7 +7856,7 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="206" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A206" s="3">
         <v>203</v>
       </c>
@@ -7886,7 +7887,7 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="207" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A207" s="3">
         <v>204</v>
       </c>
@@ -7919,7 +7920,7 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="208" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A208" s="3">
         <v>205</v>
       </c>
@@ -7950,7 +7951,7 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="209" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A209" s="3">
         <v>206</v>
       </c>
@@ -7981,7 +7982,7 @@
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="210" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A210" s="3">
         <v>207</v>
       </c>
@@ -8012,7 +8013,7 @@
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
     </row>
-    <row r="211" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="211" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A211" s="3">
         <v>208</v>
       </c>
@@ -8043,7 +8044,7 @@
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
     </row>
-    <row r="212" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="212" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A212" s="3">
         <v>209</v>
       </c>
@@ -8074,7 +8075,7 @@
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="213" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A213" s="3">
         <v>210</v>
       </c>
@@ -8105,7 +8106,7 @@
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="214" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A214" s="3">
         <v>211</v>
       </c>
@@ -8136,7 +8137,7 @@
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="215" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A215" s="3">
         <v>212</v>
       </c>
@@ -8167,7 +8168,7 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="216" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A216" s="3">
         <v>213</v>
       </c>
@@ -8194,7 +8195,7 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="217" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A217" s="3">
         <v>214</v>
       </c>
@@ -8221,7 +8222,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="218" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A218" s="3">
         <v>215</v>
       </c>
@@ -8248,7 +8249,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
     </row>
-    <row r="219" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="219" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A219" s="3">
         <v>216</v>
       </c>
@@ -8275,7 +8276,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="220" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A220" s="3">
         <v>217</v>
       </c>
@@ -8302,7 +8303,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="221" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A221" s="3">
         <v>218</v>
       </c>
@@ -8329,7 +8330,7 @@
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="222" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A222" s="3">
         <v>219</v>
       </c>
@@ -8356,7 +8357,7 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="223" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A223" s="3">
         <v>220</v>
       </c>
@@ -8383,7 +8384,7 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="224" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A224" s="3">
         <v>221</v>
       </c>
@@ -8410,7 +8411,7 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="225" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A225" s="3">
         <v>222</v>
       </c>
@@ -8437,7 +8438,7 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="226" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A226" s="3">
         <v>223</v>
       </c>
@@ -8464,7 +8465,7 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="227" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A227" s="3">
         <v>224</v>
       </c>
@@ -8491,7 +8492,7 @@
       <c r="V227" s="1"/>
       <c r="W227" s="1"/>
     </row>
-    <row r="228" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="228" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A228" s="3">
         <v>225</v>
       </c>
@@ -8518,7 +8519,7 @@
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="229" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A229" s="3">
         <v>226</v>
       </c>
@@ -8545,7 +8546,7 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
     </row>
-    <row r="230" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="230" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A230" s="3">
         <v>227</v>
       </c>
@@ -8573,7 +8574,13 @@
       <c r="W230" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA230" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AA230" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A3"/>

--- a/LINE/シリーズごとのリスト.xlsx
+++ b/LINE/シリーズごとのリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\副業\LINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2043DD9-BA8C-4751-ADEA-65D2D7B5E0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ED481D-9573-42B7-B038-6CD8A49715FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="232">
   <si>
     <t>なんでやねん</t>
   </si>
@@ -1674,14 +1674,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="S84" sqref="S84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1921,7 +1919,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1953,7 +1951,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1985,7 +1983,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2017,7 +2015,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2083,7 +2081,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2115,7 +2113,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2144,7 +2142,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2173,7 +2171,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2202,7 +2200,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2231,7 +2229,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2260,7 +2258,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2289,7 +2287,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2318,7 +2316,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2347,7 +2345,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2407,7 +2405,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2436,7 +2434,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2465,7 +2463,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2494,7 +2492,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2523,7 +2521,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2554,7 +2552,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2583,7 +2581,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2612,7 +2610,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2650,7 +2648,9 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
         <v>159</v>
@@ -2674,7 +2674,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -2683,7 +2683,9 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2703,7 +2705,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="33" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -2732,7 +2734,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="34" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -2761,7 +2763,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="35" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -2790,7 +2792,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="36" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -2819,7 +2821,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -2848,7 +2850,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -2877,7 +2879,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -2906,7 +2908,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="40" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -2935,7 +2937,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="41" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -2964,7 +2966,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -2993,7 +2995,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="43" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -3022,7 +3024,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="44" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3051,7 +3053,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="45" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -3080,7 +3082,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="46" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -3109,7 +3111,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="47" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -3138,7 +3140,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -3167,7 +3169,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -3196,7 +3198,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -3225,7 +3227,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -3254,7 +3256,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="52" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -3283,7 +3285,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="53" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -3312,7 +3314,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="54" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -3341,7 +3343,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -3370,7 +3372,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -3399,7 +3401,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -3428,7 +3430,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -3457,7 +3459,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -3486,7 +3488,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -3515,7 +3517,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -3544,7 +3546,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -3573,7 +3575,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="63" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -3582,7 +3584,9 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3602,7 +3606,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -3633,7 +3637,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="65" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -3662,7 +3666,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="66" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -3691,7 +3695,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -3700,7 +3704,9 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -3720,7 +3726,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -3729,7 +3735,9 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3749,7 +3757,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="69" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -3780,7 +3788,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -3789,7 +3797,9 @@
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -3809,7 +3819,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -3818,7 +3828,9 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -3838,7 +3850,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -3867,7 +3879,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -3896,7 +3908,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="74" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -3925,7 +3937,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="75" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -3954,7 +3966,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="76" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -3963,7 +3975,9 @@
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -3985,7 +3999,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="77" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -4016,7 +4030,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="78" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -4047,7 +4061,7 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="79" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -4078,7 +4092,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="80" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -4109,7 +4123,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="81" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -4118,7 +4132,9 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -4140,7 +4156,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="82" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -4173,7 +4189,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -4206,7 +4222,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -4237,7 +4253,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -4266,7 +4282,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -4295,7 +4311,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -4324,7 +4340,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -4355,7 +4371,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -4384,7 +4400,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -4413,7 +4429,7 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -4444,7 +4460,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -4453,7 +4469,9 @@
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -4473,7 +4491,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -4502,7 +4520,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -4531,7 +4549,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -4560,7 +4578,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -4589,7 +4607,7 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -4649,7 +4667,7 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -4678,7 +4696,7 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -4707,7 +4725,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -4736,7 +4754,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -4765,7 +4783,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -4794,7 +4812,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -4823,7 +4841,7 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="105" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -4852,7 +4870,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="106" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -4881,7 +4899,7 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="107" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -4910,7 +4928,7 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -4939,7 +4957,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -4968,7 +4986,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -4997,7 +5015,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -5026,7 +5044,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="112" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -5035,7 +5053,9 @@
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -5057,7 +5077,7 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="113" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -5088,7 +5108,7 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="114" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -5117,7 +5137,7 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="115" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -5126,7 +5146,9 @@
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -5146,7 +5168,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="116" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -5175,7 +5197,7 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="117" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -5204,7 +5226,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="118" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -5233,7 +5255,7 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="119" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -5262,7 +5284,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="120" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -5291,7 +5313,7 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -5320,7 +5342,7 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -5349,7 +5371,7 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="123" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -5378,7 +5400,7 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -5407,7 +5429,7 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="125" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -5436,7 +5458,7 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="126" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -5467,7 +5489,7 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -5496,7 +5518,7 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="128" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -5527,7 +5549,7 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="129" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -5556,7 +5578,7 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -5587,7 +5609,7 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -5616,7 +5638,7 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -5645,7 +5667,7 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -5674,7 +5696,7 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -5703,7 +5725,7 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -5732,7 +5754,7 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -5761,7 +5783,7 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -5790,7 +5812,7 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="138" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -5819,7 +5841,7 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="139" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -5848,7 +5870,7 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="140" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -5877,7 +5899,7 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="141" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -5906,7 +5928,7 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="142" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A142" s="3">
         <v>139</v>
       </c>
@@ -5935,7 +5957,7 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="143" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A143" s="3">
         <v>140</v>
       </c>
@@ -5964,7 +5986,7 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="144" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A144" s="3">
         <v>141</v>
       </c>
@@ -5993,7 +6015,7 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="145" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A145" s="3">
         <v>142</v>
       </c>
@@ -6022,7 +6044,7 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="146" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="3">
         <v>143</v>
       </c>
@@ -6051,7 +6073,7 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="147" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A147" s="3">
         <v>144</v>
       </c>
@@ -6080,7 +6102,7 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="148" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A148" s="3">
         <v>145</v>
       </c>
@@ -6111,7 +6133,7 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="149" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A149" s="3">
         <v>146</v>
       </c>
@@ -6140,7 +6162,7 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="150" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="3">
         <v>147</v>
       </c>
@@ -6169,7 +6191,7 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="151" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A151" s="3">
         <v>148</v>
       </c>
@@ -6198,7 +6220,7 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="152" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A152" s="3">
         <v>149</v>
       </c>
@@ -6227,7 +6249,7 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="153" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A153" s="3">
         <v>150</v>
       </c>
@@ -6258,7 +6280,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="154" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="3">
         <v>151</v>
       </c>
@@ -6289,7 +6311,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="155" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A155" s="3">
         <v>152</v>
       </c>
@@ -6322,7 +6344,7 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="156" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A156" s="3">
         <v>153</v>
       </c>
@@ -6353,7 +6375,7 @@
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
     </row>
-    <row r="157" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="157" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A157" s="3">
         <v>154</v>
       </c>
@@ -6384,7 +6406,7 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
     </row>
-    <row r="158" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="158" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A158" s="3">
         <v>155</v>
       </c>
@@ -6395,7 +6417,9 @@
       <c r="D158" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E158" s="1"/>
+      <c r="E158" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -6415,7 +6439,7 @@
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
     </row>
-    <row r="159" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="159" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A159" s="3">
         <v>156</v>
       </c>
@@ -6446,7 +6470,7 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A160" s="3">
         <v>157</v>
       </c>
@@ -6477,7 +6501,7 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:23" ht="15" customHeight="1">
       <c r="A161" s="3">
         <v>158</v>
       </c>
@@ -6508,7 +6532,7 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:23" ht="15" customHeight="1">
       <c r="A162" s="3">
         <v>159</v>
       </c>
@@ -6539,7 +6563,7 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:23" ht="15" customHeight="1">
       <c r="A163" s="3">
         <v>160</v>
       </c>
@@ -6572,7 +6596,7 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="164" spans="1:23" ht="15" customHeight="1">
       <c r="A164" s="3">
         <v>161</v>
       </c>
@@ -6603,7 +6627,7 @@
       <c r="V164" s="3"/>
       <c r="W164" s="3"/>
     </row>
-    <row r="165" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:23" ht="15" customHeight="1">
       <c r="A165" s="3">
         <v>162</v>
       </c>
@@ -6632,7 +6656,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="3"/>
     </row>
-    <row r="166" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A166" s="3">
         <v>163</v>
       </c>
@@ -6661,7 +6685,7 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A167" s="3">
         <v>164</v>
       </c>
@@ -6690,7 +6714,7 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A168" s="3">
         <v>165</v>
       </c>
@@ -6719,7 +6743,7 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A169" s="3">
         <v>166</v>
       </c>
@@ -6748,7 +6772,7 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A170" s="3">
         <v>167</v>
       </c>
@@ -6777,7 +6801,7 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A171" s="3">
         <v>168</v>
       </c>
@@ -6806,7 +6830,7 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A172" s="3">
         <v>169</v>
       </c>
@@ -6837,7 +6861,7 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A173" s="3">
         <v>170</v>
       </c>
@@ -6866,7 +6890,7 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="174" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A174" s="3">
         <v>171</v>
       </c>
@@ -6875,7 +6899,9 @@
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="9"/>
-      <c r="E174" s="1"/>
+      <c r="E174" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -6899,7 +6925,7 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A175" s="3">
         <v>172</v>
       </c>
@@ -6908,7 +6934,9 @@
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="9"/>
-      <c r="E175" s="1"/>
+      <c r="E175" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -6928,7 +6956,7 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="176" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A176" s="3">
         <v>173</v>
       </c>
@@ -6937,7 +6965,9 @@
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="9"/>
-      <c r="E176" s="1"/>
+      <c r="E176" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -6961,7 +6991,7 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="177" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A177" s="3">
         <v>174</v>
       </c>
@@ -6990,7 +7020,7 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="178" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="3">
         <v>175</v>
       </c>
@@ -7019,7 +7049,7 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="179" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A179" s="3">
         <v>176</v>
       </c>
@@ -7048,7 +7078,7 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="180" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A180" s="3">
         <v>177</v>
       </c>
@@ -7079,7 +7109,7 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="181" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="3">
         <v>178</v>
       </c>
@@ -7108,7 +7138,7 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="182" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="3">
         <v>179</v>
       </c>
@@ -7137,7 +7167,7 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="183" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A183" s="3">
         <v>180</v>
       </c>
@@ -7168,7 +7198,7 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="184" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A184" s="3">
         <v>181</v>
       </c>
@@ -7199,7 +7229,7 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="185" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A185" s="3">
         <v>182</v>
       </c>
@@ -7230,7 +7260,7 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="186" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="3">
         <v>183</v>
       </c>
@@ -7261,7 +7291,7 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="187" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="3">
         <v>184</v>
       </c>
@@ -7292,7 +7322,7 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="188" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="3">
         <v>185</v>
       </c>
@@ -7325,7 +7355,7 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="189" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="3">
         <v>186</v>
       </c>
@@ -7356,7 +7386,7 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="190" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="3">
         <v>187</v>
       </c>
@@ -7387,7 +7417,7 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="191" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="3">
         <v>188</v>
       </c>
@@ -7418,7 +7448,7 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="192" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="3">
         <v>189</v>
       </c>
@@ -7449,7 +7479,7 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="193" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="3">
         <v>190</v>
       </c>
@@ -7482,7 +7512,7 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="194" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="3">
         <v>191</v>
       </c>
@@ -7513,7 +7543,7 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="195" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="3">
         <v>192</v>
       </c>
@@ -7544,7 +7574,7 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="196" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="3">
         <v>193</v>
       </c>
@@ -7575,7 +7605,7 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="197" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="3">
         <v>194</v>
       </c>
@@ -7606,7 +7636,7 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="198" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="3">
         <v>195</v>
       </c>
@@ -7637,7 +7667,7 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="199" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="3">
         <v>196</v>
       </c>
@@ -7668,7 +7698,7 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="200" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="3">
         <v>197</v>
       </c>
@@ -7699,7 +7729,7 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="201" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="3">
         <v>198</v>
       </c>
@@ -7730,7 +7760,7 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="202" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="3">
         <v>199</v>
       </c>
@@ -7761,7 +7791,7 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="203" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="3">
         <v>200</v>
       </c>
@@ -7794,7 +7824,7 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="204" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A204" s="3">
         <v>201</v>
       </c>
@@ -7825,7 +7855,7 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="205" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A205" s="3">
         <v>202</v>
       </c>
@@ -7856,7 +7886,7 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="206" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A206" s="3">
         <v>203</v>
       </c>
@@ -7887,7 +7917,7 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="207" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="3">
         <v>204</v>
       </c>
@@ -7920,7 +7950,7 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="208" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A208" s="3">
         <v>205</v>
       </c>
@@ -7951,7 +7981,7 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="209" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A209" s="3">
         <v>206</v>
       </c>
@@ -7982,7 +8012,7 @@
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="210" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A210" s="3">
         <v>207</v>
       </c>
@@ -8013,7 +8043,7 @@
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
     </row>
-    <row r="211" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="211" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A211" s="3">
         <v>208</v>
       </c>
@@ -8044,7 +8074,7 @@
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
     </row>
-    <row r="212" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="212" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A212" s="3">
         <v>209</v>
       </c>
@@ -8075,7 +8105,7 @@
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="213" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A213" s="3">
         <v>210</v>
       </c>
@@ -8106,7 +8136,7 @@
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="214" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A214" s="3">
         <v>211</v>
       </c>
@@ -8137,7 +8167,7 @@
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="215" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A215" s="3">
         <v>212</v>
       </c>
@@ -8168,7 +8198,7 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="216" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A216" s="3">
         <v>213</v>
       </c>
@@ -8195,7 +8225,7 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="217" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A217" s="3">
         <v>214</v>
       </c>
@@ -8222,7 +8252,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="218" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="3">
         <v>215</v>
       </c>
@@ -8249,7 +8279,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
     </row>
-    <row r="219" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="219" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A219" s="3">
         <v>216</v>
       </c>
@@ -8276,7 +8306,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="220" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A220" s="3">
         <v>217</v>
       </c>
@@ -8303,7 +8333,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="221" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A221" s="3">
         <v>218</v>
       </c>
@@ -8330,7 +8360,7 @@
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="222" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A222" s="3">
         <v>219</v>
       </c>
@@ -8357,7 +8387,7 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="223" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A223" s="3">
         <v>220</v>
       </c>
@@ -8384,7 +8414,7 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="224" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A224" s="3">
         <v>221</v>
       </c>
@@ -8411,7 +8441,7 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="225" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A225" s="3">
         <v>222</v>
       </c>
@@ -8438,7 +8468,7 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="226" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A226" s="3">
         <v>223</v>
       </c>
@@ -8465,7 +8495,7 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="227" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A227" s="3">
         <v>224</v>
       </c>
@@ -8492,7 +8522,7 @@
       <c r="V227" s="1"/>
       <c r="W227" s="1"/>
     </row>
-    <row r="228" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="228" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A228" s="3">
         <v>225</v>
       </c>
@@ -8519,7 +8549,7 @@
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="229" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A229" s="3">
         <v>226</v>
       </c>
@@ -8546,7 +8576,7 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
     </row>
-    <row r="230" spans="1:23" s="2" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="230" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A230" s="3">
         <v>227</v>
       </c>
@@ -8574,13 +8604,7 @@
       <c r="W230" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA230" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AA230" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A3"/>
